--- a/biology/Zoologie/Capillaria_tridens/Capillaria_tridens.xlsx
+++ b/biology/Zoologie/Capillaria_tridens/Capillaria_tridens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tridentocapillaria tridens
 Capillaria tridens est une espèce de nématodes de la famille des Capillariidae, parasitant des oiseaux.
@@ -512,9 +524,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capillaria tridens parasite l'intestin grêle de nombreuses espèces d'oiseaux[1]. La liste des hôtes connus contient les oiseaux suivants[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capillaria tridens parasite l'intestin grêle de nombreuses espèces d'oiseaux. La liste des hôtes connus contient les oiseaux suivants, :
 Actinodure de Taïwan (Actinodura morrisoniana)
 Alcippe à joues grises (Alcippe morrisonia)
 Bruant à tête rousse (Emberiza bruniceps)
@@ -548,7 +562,7 @@
 Tohi à flancs roux (Pipilo erythrophthalmus)
 Viréo aux yeux blancs (Vireo griseus noveboracensis)
 Zostérops du Japon (Zosterops japonicus simplex)
-En 1993, Anna Okulewicz rapporte C. tridens chez les sous-espèces parvus du Pic porphyroïde (Blythipicus rubiginosus) et insperatus de la Mésange montagnarde (Parus monticolus)[3] ; en 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva avançaient que le C. tridens rapporté en 1971 par D. Wakelin et al. chez le Pic porphyroïde concernait Capillaria eurycerca, qui parasite également la Mésange montagnarde[4].
+En 1993, Anna Okulewicz rapporte C. tridens chez les sous-espèces parvus du Pic porphyroïde (Blythipicus rubiginosus) et insperatus de la Mésange montagnarde (Parus monticolus) ; en 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva avançaient que le C. tridens rapporté en 1971 par D. Wakelin et al. chez le Pic porphyroïde concernait Capillaria eurycerca, qui parasite également la Mésange montagnarde.
 </t>
         </is>
       </c>
@@ -577,9 +591,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capillaria tridens a été originellement décrit d'un Rossignol philomèle (Luscinia megarhynchos) venant de Rennes, en France[5], mais a également été trouvé chez des oiseaux provenant de Cuba et du Tadjikistan[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capillaria tridens a été originellement décrit d'un Rossignol philomèle (Luscinia megarhynchos) venant de Rennes, en France, mais a également été trouvé chez des oiseaux provenant de Cuba et du Tadjikistan.
 </t>
         </is>
       </c>
@@ -608,10 +624,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1845 par le biologiste français Félix Dujardin, sous le protonyme Thominx tridens, d'après plusieurs mâles trouvés dans l'intestin d'un Rossignol philomèle (Luscinia megarhynchos)[5].
-L'espèce change de nombreuses fois de genre : de Thominx, Karl Moritz Diesing la déplace en 1851 pour Trichosoma. En 1915, Lauro Pereira Travassos la place dans le genre Capillaria, puis Carlos Rodríguez López-Neyra en fait un Echinocoleus en 1947. En 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva décrivent un nouveau genre, Tridentocapillaria, avec Tridentocapillaria tridens (Dujardin, 1845) pour espèce type[6]. Dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid, le parasitologiste tchèque František Moravec traite le genre Tridentocapillaria comme sous-genre de Capillaria[7], mais il est reconnu comme genre à part entière dans le Biology Catalog proposé par Joel K. Hallan en 2008[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1845 par le biologiste français Félix Dujardin, sous le protonyme Thominx tridens, d'après plusieurs mâles trouvés dans l'intestin d'un Rossignol philomèle (Luscinia megarhynchos).
+L'espèce change de nombreuses fois de genre : de Thominx, Karl Moritz Diesing la déplace en 1851 pour Trichosoma. En 1915, Lauro Pereira Travassos la place dans le genre Capillaria, puis Carlos Rodríguez López-Neyra en fait un Echinocoleus en 1947. En 1990, Vlastimil Baruš et Tamara Petrovna Sergejeva décrivent un nouveau genre, Tridentocapillaria, avec Tridentocapillaria tridens (Dujardin, 1845) pour espèce type. Dans sa monographie de 2001 sur les nématodes de la super-famille des Trichinelloidea parasitant les animaux à sang froid, le parasitologiste tchèque František Moravec traite le genre Tridentocapillaria comme sous-genre de Capillaria, mais il est reconnu comme genre à part entière dans le Biology Catalog proposé par Joel K. Hallan en 2008.
 </t>
         </is>
       </c>
